--- a/2020/Others/Adding New Retailer Format/Reactive retailers format.xlsx
+++ b/2020/Others/Adding New Retailer Format/Reactive retailers format.xlsx
@@ -140,13 +140,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -457,7 +457,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -512,27 +512,27 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="5"/>

--- a/2020/Others/Adding New Retailer Format/Reactive retailers format.xlsx
+++ b/2020/Others/Adding New Retailer Format/Reactive retailers format.xlsx
@@ -33,13 +33,13 @@
     <t xml:space="preserve">RetailerAddress </t>
   </si>
   <si>
-    <t>RET-07868</t>
+    <t>RET-08809</t>
   </si>
   <si>
-    <t>S.N Mobile Center</t>
+    <t>Azer Talecom</t>
   </si>
   <si>
-    <t>Central Masjid Market</t>
+    <t>Arani Bazar</t>
   </si>
 </sst>
 </file>
@@ -120,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -149,6 +149,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +458,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -488,7 +489,7 @@
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="8"/>

--- a/2020/Others/Adding New Retailer Format/Reactive retailers format.xlsx
+++ b/2020/Others/Adding New Retailer Format/Reactive retailers format.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">RetailerID </t>
   </si>
@@ -33,20 +33,41 @@
     <t xml:space="preserve">RetailerAddress </t>
   </si>
   <si>
-    <t>RET-08809</t>
-  </si>
-  <si>
-    <t>Azer Talecom</t>
-  </si>
-  <si>
-    <t>Arani Bazar</t>
+    <t>RET-20749</t>
+  </si>
+  <si>
+    <t>Ahona Telecom</t>
+  </si>
+  <si>
+    <t>Yusufpur bazar</t>
+  </si>
+  <si>
+    <t>RET-36274</t>
+  </si>
+  <si>
+    <t>Abir Electronics</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Road View/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kaligong Bazar</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +101,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,9 +165,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -149,7 +175,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,7 +484,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -483,21 +509,26 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1">
       <c r="A4" s="5"/>
@@ -707,5 +738,6 @@
     <mergeCell ref="L6:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2020/Others/Adding New Retailer Format/Reactive retailers format.xlsx
+++ b/2020/Others/Adding New Retailer Format/Reactive retailers format.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">RetailerID </t>
   </si>
@@ -33,41 +33,20 @@
     <t xml:space="preserve">RetailerAddress </t>
   </si>
   <si>
-    <t>RET-20749</t>
+    <t>Sinja Telecom</t>
   </si>
   <si>
-    <t>Ahona Telecom</t>
+    <t>RET-35369</t>
   </si>
   <si>
-    <t>Yusufpur bazar</t>
-  </si>
-  <si>
-    <t>RET-36274</t>
-  </si>
-  <si>
-    <t>Abir Electronics</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Road View/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Kaligong Bazar</t>
-    </r>
+    <t>Lalpur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,13 +80,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,6 +138,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -175,7 +148,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,7 +456,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -509,26 +481,20 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>3</v>
+      <c r="A2" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1">
       <c r="A4" s="5"/>
@@ -544,27 +510,27 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="5"/>
